--- a/res/estimates.xlsx
+++ b/res/estimates.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabriel/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabriel/Desktop/tfm/res/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316D4FA0-902D-4E43-B749-4D1C07C3D0C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D605DF7D-20EE-7A45-9836-38A2B6EE9958}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29220" yWindow="2940" windowWidth="30180" windowHeight="21960" xr2:uid="{FD4E9BF9-A412-FA4D-B846-D6843066067F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{FD4E9BF9-A412-FA4D-B846-D6843066067F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
   <si>
     <t>Gestionar Tareas</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>BV</t>
+  </si>
+  <si>
+    <t>Gestión Etiquetas</t>
   </si>
 </sst>
 </file>
@@ -87,7 +90,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -97,6 +100,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -113,15 +122,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,8 +445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B955997-64B4-6B4C-82E4-B48E04042EDC}">
   <dimension ref="A2:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -447,11 +454,11 @@
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" customWidth="1"/>
     <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5" customWidth="1"/>
     <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6.1640625" customWidth="1"/>
     <col min="16" max="16" width="13.33203125" bestFit="1" customWidth="1"/>
@@ -461,63 +468,65 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="J2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="G2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="J2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="M2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N2" s="1"/>
-      <c r="P2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q2" s="1"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
+      <c r="K2" s="3"/>
+      <c r="M2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="3"/>
+      <c r="P2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="3"/>
+      <c r="S2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T2" s="3"/>
     </row>
     <row r="3" spans="1:20" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>3</v>
-      </c>
-      <c r="B3" s="4">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>8</v>
+      </c>
+      <c r="H3">
+        <v>40</v>
+      </c>
+      <c r="J3" s="2">
+        <v>3</v>
+      </c>
+      <c r="K3" s="2">
         <v>17</v>
       </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3">
+      <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="N3">
         <v>12</v>
-      </c>
-      <c r="G3">
-        <v>3</v>
-      </c>
-      <c r="H3">
-        <v>17</v>
-      </c>
-      <c r="J3">
-        <v>3</v>
-      </c>
-      <c r="K3">
-        <v>20</v>
-      </c>
-      <c r="M3">
-        <v>8</v>
-      </c>
-      <c r="N3">
-        <v>40</v>
       </c>
       <c r="P3">
         <v>3</v>
@@ -525,37 +534,43 @@
       <c r="Q3">
         <v>30</v>
       </c>
+      <c r="S3">
+        <v>3</v>
+      </c>
+      <c r="T3">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" spans="1:20" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>14</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H4">
-        <v>15</v>
-      </c>
-      <c r="J4">
-        <v>3</v>
-      </c>
-      <c r="K4">
+        <v>30</v>
+      </c>
+      <c r="J4" s="2">
+        <v>3</v>
+      </c>
+      <c r="K4" s="2">
         <v>14</v>
       </c>
       <c r="M4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N4">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="P4">
         <v>3</v>
@@ -563,39 +578,43 @@
       <c r="Q4">
         <v>22</v>
       </c>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
+      <c r="S4">
+        <v>3</v>
+      </c>
+      <c r="T4">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" spans="1:20" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
         <v>15</v>
       </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5">
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>25</v>
+      </c>
+      <c r="J5" s="2">
+        <v>3</v>
+      </c>
+      <c r="K5" s="2">
+        <v>15</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5">
         <v>10</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>4</v>
-      </c>
-      <c r="J5">
-        <v>3</v>
-      </c>
-      <c r="K5">
-        <v>12</v>
-      </c>
-      <c r="M5">
-        <v>5</v>
-      </c>
-      <c r="N5">
-        <v>25</v>
       </c>
       <c r="P5">
         <v>3</v>
@@ -603,13 +622,19 @@
       <c r="Q5">
         <v>27</v>
       </c>
+      <c r="S5">
+        <v>3</v>
+      </c>
+      <c r="T5">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" spans="1:20" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4">
-        <v>22</v>
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -618,368 +643,359 @@
         <v>4</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H6">
-        <v>5</v>
-      </c>
-      <c r="J6">
+        <v>25</v>
+      </c>
+      <c r="J6" s="2">
+        <v>3</v>
+      </c>
+      <c r="K6" s="2">
+        <v>24</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="N6">
+        <v>9</v>
+      </c>
+      <c r="P6">
+        <v>3</v>
+      </c>
+      <c r="Q6">
+        <v>15</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>20</v>
+      </c>
+      <c r="J7" s="2">
+        <v>3</v>
+      </c>
+      <c r="K7" s="2">
+        <v>22</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>9</v>
+      </c>
+      <c r="P7">
+        <v>3</v>
+      </c>
+      <c r="Q7">
+        <v>18</v>
+      </c>
+      <c r="S7">
+        <f>SUM($S3:$S5)</f>
+        <v>9</v>
+      </c>
+      <c r="T7">
+        <f>SUM($T3:$T5)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>20</v>
+      </c>
+      <c r="J8" s="2">
+        <v>3</v>
+      </c>
+      <c r="K8" s="2">
+        <v>15</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>4</v>
+      </c>
+      <c r="P8">
+        <v>5</v>
+      </c>
+      <c r="Q8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <f>SUM(A3:A7)</f>
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <f>SUM(B3:B7)</f>
+        <v>60</v>
+      </c>
+      <c r="D9">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="2">
+        <v>5</v>
+      </c>
+      <c r="K9" s="2">
+        <v>11</v>
+      </c>
+      <c r="M9">
+        <v>5</v>
+      </c>
+      <c r="N9">
+        <v>12</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
         <v>8</v>
       </c>
-      <c r="K6">
+      <c r="G10">
+        <f>SUM(G3:G8)</f>
+        <v>36</v>
+      </c>
+      <c r="H10">
+        <f>SUM(H3:H8)</f>
+        <v>160</v>
+      </c>
+      <c r="J10" s="2">
+        <v>5</v>
+      </c>
+      <c r="K10" s="2">
         <v>10</v>
       </c>
-      <c r="M6">
-        <v>5</v>
-      </c>
-      <c r="N6">
-        <v>25</v>
-      </c>
-      <c r="P6">
-        <v>3</v>
-      </c>
-      <c r="Q6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>3</v>
-      </c>
-      <c r="B7" s="4">
-        <v>24</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>5</v>
-      </c>
-      <c r="J7">
-        <v>3</v>
-      </c>
-      <c r="K7">
-        <v>4</v>
-      </c>
-      <c r="M7">
-        <v>8</v>
-      </c>
-      <c r="N7">
-        <v>45</v>
-      </c>
-      <c r="P7">
-        <v>3</v>
-      </c>
-      <c r="Q7">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4">
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>5</v>
+      </c>
+      <c r="P10">
+        <f>SUM(P3:P8)</f>
+        <v>20</v>
+      </c>
+      <c r="Q10">
+        <f>SUM(Q3:Q8)</f>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>14</v>
+      </c>
+      <c r="J11" s="2">
+        <v>5</v>
+      </c>
+      <c r="K11" s="2">
+        <v>9</v>
+      </c>
+      <c r="M11">
+        <v>5</v>
+      </c>
+      <c r="N11">
         <v>11</v>
       </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-      <c r="E8">
-        <v>12</v>
-      </c>
-      <c r="G8">
-        <v>21</v>
-      </c>
-      <c r="H8">
-        <v>3</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M8">
-        <v>5</v>
-      </c>
-      <c r="N8">
-        <v>30</v>
-      </c>
-      <c r="P8">
-        <v>3</v>
-      </c>
-      <c r="Q8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
-        <v>5</v>
-      </c>
-      <c r="B9" s="4">
-        <v>10</v>
-      </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
-      <c r="E9">
-        <v>11</v>
-      </c>
-      <c r="G9">
-        <v>3</v>
-      </c>
-      <c r="H9">
-        <v>8</v>
-      </c>
-      <c r="J9">
-        <f>SUM(J3:J7)</f>
-        <v>20</v>
-      </c>
-      <c r="K9">
-        <f>SUM(K3:K7)</f>
-        <v>60</v>
-      </c>
-      <c r="M9">
-        <v>5</v>
-      </c>
-      <c r="N9">
-        <v>25</v>
-      </c>
-      <c r="P9">
-        <v>3</v>
-      </c>
-      <c r="Q9">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
-        <v>5</v>
-      </c>
-      <c r="B10" s="4">
-        <v>9</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>9</v>
-      </c>
-      <c r="G10">
-        <v>3</v>
-      </c>
-      <c r="H10">
-        <v>14</v>
-      </c>
-      <c r="M10">
-        <v>8</v>
-      </c>
-      <c r="N10">
-        <v>20</v>
-      </c>
-      <c r="P10">
-        <v>5</v>
-      </c>
-      <c r="Q10">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
-        <v>3</v>
-      </c>
-      <c r="B11" s="4">
-        <v>12</v>
-      </c>
-      <c r="D11">
-        <v>3</v>
-      </c>
-      <c r="E11">
-        <v>11</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>10</v>
-      </c>
-      <c r="M11">
-        <v>8</v>
-      </c>
-      <c r="N11">
-        <v>20</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="12" spans="1:20" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
-        <v>5</v>
-      </c>
-      <c r="B12" s="4">
-        <v>16</v>
-      </c>
       <c r="D12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <v>10</v>
       </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
+      <c r="J12" s="2">
+        <v>3</v>
+      </c>
+      <c r="K12" s="2">
+        <v>12</v>
+      </c>
+      <c r="M12">
+        <v>3</v>
+      </c>
+      <c r="N12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
         <v>9</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="J13" s="2">
+        <v>5</v>
+      </c>
+      <c r="K13" s="2">
+        <v>16</v>
+      </c>
+      <c r="M13">
+        <v>13</v>
+      </c>
+      <c r="N13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+      <c r="D14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="E14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="P12">
-        <f>SUM(P3:P10)</f>
-        <v>26</v>
-      </c>
-      <c r="Q12">
-        <f>SUM(Q3:Q10)</f>
-        <v>160</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
-        <v>3</v>
-      </c>
-      <c r="B13" s="4">
-        <v>14</v>
-      </c>
-      <c r="D13">
+      <c r="J14" s="2">
+        <v>1</v>
+      </c>
+      <c r="K14" s="2">
+        <v>11</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <f>SUM(D2:D13)</f>
+        <v>41</v>
+      </c>
+      <c r="E15">
+        <f>SUM(E2:E13)</f>
+        <v>100</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1</v>
+      </c>
+      <c r="K15" s="2">
+        <v>9</v>
+      </c>
+      <c r="M15">
+        <f>SUM($M3:$M13)</f>
+        <v>41</v>
+      </c>
+      <c r="N15">
+        <f>SUM($N3:$N13)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+      <c r="J16" s="2">
         <v>13</v>
       </c>
-      <c r="E13">
-        <v>8</v>
-      </c>
-      <c r="G13" s="3" t="s">
+      <c r="K16" s="2">
         <v>6</v>
       </c>
-      <c r="H13" s="3" t="s">
+    </row>
+    <row r="17" spans="10:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="J17" s="2">
+        <v>1</v>
+      </c>
+      <c r="K17" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="10:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="J18" s="2">
+        <v>5</v>
+      </c>
+      <c r="K18" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="10:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="J19" s="2">
+        <v>5</v>
+      </c>
+      <c r="K19" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M13">
-        <f>SUM(M3:M11)</f>
-        <v>57</v>
-      </c>
-      <c r="N13">
-        <f>SUM(N3:N11)</f>
-        <v>260</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
-        <v>3</v>
-      </c>
-      <c r="B14" s="4">
-        <v>14</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14">
-        <f>SUM(G2:G12)</f>
-        <v>38</v>
-      </c>
-      <c r="H14">
-        <f>SUM(H2:H12)</f>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
-        <v>3</v>
-      </c>
-      <c r="B15" s="4">
-        <v>16</v>
-      </c>
-      <c r="D15">
-        <f>SUM($D3:$D13)</f>
-        <v>41</v>
-      </c>
-      <c r="E15">
-        <f>SUM($E3:$E13)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
-        <v>1</v>
-      </c>
-      <c r="B16" s="4">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
-        <v>13</v>
-      </c>
-      <c r="B17" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
-        <v>1</v>
-      </c>
-      <c r="B18" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
-        <v>1</v>
-      </c>
-      <c r="B19" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <f>SUM($A3:$A19)</f>
-        <v>63</v>
-      </c>
-      <c r="B21">
-        <f>SUM($B3:$B19)</f>
-        <v>230</v>
+    </row>
+    <row r="21" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J21">
+        <f>SUM($J3:$J19)</f>
+        <v>67</v>
+      </c>
+      <c r="K21">
+        <f>SUM($K3:$K19)</f>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="G2:H2"/>
+  <mergeCells count="7">
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="S2:T2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="M2:N2"/>
-    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="G2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
